--- a/biology/Botanique/Square_Tolstoï/Square_Tolstoï.xlsx
+++ b/biology/Botanique/Square_Tolstoï/Square_Tolstoï.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_Tolsto%C3%AF</t>
+          <t>Square_Tolstoï</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Tolstoï est un square du 16e arrondissement de Paris, longeant le bois de Boulogne et le boulevard Suchet.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_Tolsto%C3%AF</t>
+          <t>Square_Tolstoï</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square est accessible au niveau du 92 boulevard Suchet, du 1, avenue du Maréchal-Lyautey et de l'avenue du Maréchal-Franchet-d'Espérey[1],[2].
-Il est ouvert 24 heures sur 24[2].
-Il est desservi par la ligne 10 à la station Porte d'Auteuil[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square est accessible au niveau du 92 boulevard Suchet, du 1, avenue du Maréchal-Lyautey et de l'avenue du Maréchal-Franchet-d'Espérey,.
+Il est ouvert 24 heures sur 24.
+Il est desservi par la ligne 10 à la station Porte d'Auteuil.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_Tolsto%C3%AF</t>
+          <t>Square_Tolstoï</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il porte le nom du romancier et moraliste russe Léon Tolstoï (1828-1910)[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il porte le nom du romancier et moraliste russe Léon Tolstoï (1828-1910),.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_Tolsto%C3%AF</t>
+          <t>Square_Tolstoï</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,11 +592,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce square est ouvert et prend sa dénomination actuelle par un arrêté du 14 août 1934, à l'emplacement du bastion no 61 de l'enceinte de Thiers[1]. Voisins, les squares Alfred-Capus, Henry-Bataille et des Écrivains-Combattants-Morts-pour-la-France sont aménagés à la même époque et suivant un schéma similaire.
-Il s'agit d'un espace vert loti sur ses pourtours nord et sud. Il possède le label ÉcoJardin[2].
-Planté d'un Ginkgo biloba, de marronniers à fleurs rouges et de rosiers grimpants, le square accueille une aire de jeux pour enfants et un bac à sable. Il est accessible aux personnes à mobilité réduite. Les chiens y sont interdits. Juste à l'extérieur, côté ouest, sur un tronçon piéton de l'avenue du Maréchal-Lyautey, sont installés une table de ping-pong, deux échiquiers et deux agrès[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce square est ouvert et prend sa dénomination actuelle par un arrêté du 14 août 1934, à l'emplacement du bastion no 61 de l'enceinte de Thiers. Voisins, les squares Alfred-Capus, Henry-Bataille et des Écrivains-Combattants-Morts-pour-la-France sont aménagés à la même époque et suivant un schéma similaire.
+Il s'agit d'un espace vert loti sur ses pourtours nord et sud. Il possède le label ÉcoJardin.
+Planté d'un Ginkgo biloba, de marronniers à fleurs rouges et de rosiers grimpants, le square accueille une aire de jeux pour enfants et un bac à sable. Il est accessible aux personnes à mobilité réduite. Les chiens y sont interdits. Juste à l'extérieur, côté ouest, sur un tronçon piéton de l'avenue du Maréchal-Lyautey, sont installés une table de ping-pong, deux échiquiers et deux agrès.
 </t>
         </is>
       </c>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Square_Tolsto%C3%AF</t>
+          <t>Square_Tolstoï</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,10 +627,12 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fontaine surplombée d'une statue représentant une femme et un enfant est l'œuvre de Charles Georges Cassou (1934)[2],[3].
-Un buste de Léon Tolstoï réalisé par le sculpteur Akop Gurdjan orne le square[2]. Il y est installé en 1955[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fontaine surplombée d'une statue représentant une femme et un enfant est l'œuvre de Charles Georges Cassou (1934),.
+Un buste de Léon Tolstoï réalisé par le sculpteur Akop Gurdjan orne le square. Il y est installé en 1955.
 L'hippodrome d'Auteuil est visible depuis le square.
 			Buste de Léon Tolstoï.
 			La fontaine vue de loin.
